--- a/Layer 1/wirelist.xlsx
+++ b/Layer 1/wirelist.xlsx
@@ -8,13 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krich\Desktop\LEVEL 9\Networking 2025\Networking\Layer 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE270A53-F50B-431D-8D62-5FB60F57D105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393408B4-8E83-4373-8FDC-A5C188581AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{4F2EE7D8-C812-4914-AF43-1087EA2FD149}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4F2EE7D8-C812-4914-AF43-1087EA2FD149}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="FD1A" sheetId="2" r:id="rId2"/>
+    <sheet name="FD1B" sheetId="3" r:id="rId3"/>
+    <sheet name="BD1" sheetId="4" r:id="rId4"/>
+    <sheet name="CD" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="Total_100mbs">FD1A!$J$2</definedName>
+    <definedName name="Total_10mbs">FD1A!$I$2</definedName>
+    <definedName name="Total_1gbs">FD1A!$K$2</definedName>
+    <definedName name="Total_CAT6_Lenght">FD1A!$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,12 +43,395 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="120">
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Floors</t>
+  </si>
+  <si>
+    <t>Forecount</t>
+  </si>
+  <si>
+    <t>Supermarket</t>
+  </si>
+  <si>
+    <t>T&amp;S</t>
+  </si>
+  <si>
+    <t>Slow Charge</t>
+  </si>
+  <si>
+    <t>Bat1</t>
+  </si>
+  <si>
+    <t>Bat2</t>
+  </si>
+  <si>
+    <t>Sub1</t>
+  </si>
+  <si>
+    <t>Sub2</t>
+  </si>
+  <si>
+    <t>Car wash</t>
+  </si>
+  <si>
+    <t>Fast charge</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>CAT6</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>Security Camera</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Total CAT6</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Number of Boxes</t>
+  </si>
+  <si>
+    <t>Vat</t>
+  </si>
+  <si>
+    <t>Vat amount</t>
+  </si>
+  <si>
+    <t>Net per box</t>
+  </si>
+  <si>
+    <t>Net total</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Total outlets</t>
+  </si>
+  <si>
+    <t>Net per TO</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10mbs</t>
+  </si>
+  <si>
+    <t>100mbs</t>
+  </si>
+  <si>
+    <t>1000mbs</t>
+  </si>
+  <si>
+    <t>Switch Ports</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Number of switches</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>PBX</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Analouge</t>
+  </si>
+  <si>
+    <t>POTS</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>Fire Alarm</t>
+  </si>
+  <si>
+    <t>Burgler Alarm</t>
+  </si>
+  <si>
+    <t>Path Panel Capacity</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Cale Cost</t>
+  </si>
+  <si>
+    <t>TO Cost</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Pairs</t>
+  </si>
+  <si>
+    <t>Multicore</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>MMF</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>Cable Num</t>
+  </si>
+  <si>
+    <t>Cable Number</t>
+  </si>
+  <si>
+    <t>Coax</t>
+  </si>
+  <si>
+    <t>SMF</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="&quot;€&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -52,7 +445,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -60,12 +453,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +872,2443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4E0D55-E97D-4FE8-B784-FDA66EEF3A92}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="11" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="7">
+        <f>FD1A!$Q$11</f>
+        <v>381.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="7">
+        <f>FD1A!$Q$18</f>
+        <v>397.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D1FB70-FE4B-4B64-B249-18ADA072350F}">
+  <dimension ref="A1:U34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>SUM(G4:G34)</f>
+        <v>1910</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6">
+        <v>100</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>$G$2</f>
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="P5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>75</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="11">
+        <f>ROUNDUP(Q4/Q5, 0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>75</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="P7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>75</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>Q7*Q6</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>75</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="P9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="12">
+        <f>Q8*Q9</f>
+        <v>45.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="P11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="15">
+        <f>Q8+Q10</f>
+        <v>381.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>55</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="P13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>35</v>
+      </c>
+      <c r="S13" t="s">
+        <v>97</v>
+      </c>
+      <c r="U13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>55</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="P14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>10</v>
+      </c>
+      <c r="S14" t="s">
+        <v>98</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="P15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="12">
+        <f>Q14*Q13</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>55</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="P16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>55</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="P17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="12">
+        <f>Q15*Q16</f>
+        <v>47.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>55</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="P18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="15">
+        <f>Q15+Q17</f>
+        <v>397.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>55</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>55</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="P20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="16" t="str">
+        <f>$I$2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>55</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="P21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>55</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="P22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>55</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="P23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>55</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="P24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>55</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="P25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <v>55</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="P26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>55</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q27" s="12">
+        <f>Q26*Q25</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28">
+        <v>55</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="P28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>55</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q29" s="12">
+        <f>Q27*Q28</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>55</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="15">
+        <f>Q27+Q29</f>
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33">
+        <v>90</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34">
+        <v>90</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB46209C-E3B2-425F-8F00-6325E409A73B}">
+  <dimension ref="A1:N65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>SUM(G4:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6">
+        <v>100</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F894429-5A64-4235-A3D8-131B4F8FFBFA}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6">
+        <v>25</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="str">
+        <f>"BD:" &amp; A3 &amp; "-" &amp;B3 &amp; " " &amp;D3 &amp; C3</f>
+        <v>BD:1A-1B MMF1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" ref="H4:H5" si="0">"BD:" &amp; A4 &amp; "-" &amp;B4 &amp; " " &amp;D4 &amp; C4</f>
+        <v>BD:1A-1B Multicore1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BD:1A-1B Coax1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1575EAD2-4DB0-4D3C-8955-DE92D2559B53}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6">
+        <f>SUM(E3:E8)</f>
+        <v>200</v>
+      </c>
+      <c r="F1" s="6">
+        <f>SUM(F3:F8)</f>
+        <v>200</v>
+      </c>
+      <c r="G1" s="6">
+        <f>SUM(G3:G8)</f>
+        <v>200</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>"CD:" &amp; A3 &amp; "-" &amp;B3 &amp; " " &amp;D3&amp;C3</f>
+        <v>CD:1-2 MMF1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>"CD:" &amp; A4 &amp; "-" &amp;B4 &amp; " " &amp;D4&amp;C4</f>
+        <v>CD:1-2 SMF1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>"CD:" &amp; A5 &amp; "-" &amp;B5 &amp; " " &amp;D5&amp;C5</f>
+        <v>CD:1-2 Multicore1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f>"CD:" &amp; A6 &amp; "-" &amp;B6 &amp; " " &amp;D6&amp;C6</f>
+        <v>CD:2-3 MMF1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f>"CD:" &amp; A7 &amp; "-" &amp;B7 &amp; " " &amp;D7&amp;C7</f>
+        <v>CD:2-3 SMF1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f>"CD:" &amp; A8 &amp; "-" &amp;B8 &amp; " " &amp;D8&amp;C8</f>
+        <v>CD:2-3 Multicore1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Layer 1/wirelist.xlsx
+++ b/Layer 1/wirelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krich\Desktop\LEVEL 9\Networking 2025\Networking\Layer 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393408B4-8E83-4373-8FDC-A5C188581AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C986FF1-D813-4ABA-90A7-B49881516546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4F2EE7D8-C812-4914-AF43-1087EA2FD149}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4F2EE7D8-C812-4914-AF43-1087EA2FD149}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="118">
   <si>
     <t>Site</t>
   </si>
@@ -274,18 +274,6 @@
     <t>Switch Ports</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -404,6 +392,12 @@
   </si>
   <si>
     <t>035</t>
+  </si>
+  <si>
+    <t>Coffee Area</t>
+  </si>
+  <si>
+    <t>First Floor</t>
   </si>
 </sst>
 </file>
@@ -412,7 +406,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="&quot;€&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;€&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -537,25 +531,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -993,7 +987,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B5" s="7">
         <f>FD1A!$Q$11</f>
@@ -1002,7 +996,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="7">
         <f>FD1A!$Q$18</f>
@@ -1020,7 +1014,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D34"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,33 +1026,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I1" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="I1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G2">
         <f>SUM(G4:G34)</f>
         <v>1910</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>92</v>
+      <c r="K2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -1102,13 +1096,13 @@
         <v>1000</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1383,7 +1377,7 @@
         <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
@@ -1422,7 +1416,7 @@
         <v>55</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -1454,7 +1448,7 @@
         <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
@@ -1469,7 +1463,7 @@
         <v>35</v>
       </c>
       <c r="S13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="U13">
         <v>24</v>
@@ -1498,7 +1492,7 @@
         <v>55</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -1513,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="S14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -1542,7 +1536,7 @@
         <v>55</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
@@ -1581,7 +1575,7 @@
         <v>55</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1619,7 +1613,7 @@
         <v>55</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1">
@@ -1658,7 +1652,7 @@
         <v>55</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -1697,7 +1691,7 @@
         <v>55</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1">
@@ -1729,7 +1723,7 @@
         <v>55</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -1768,7 +1762,7 @@
         <v>55</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1">
@@ -1806,7 +1800,7 @@
         <v>55</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -1844,7 +1838,7 @@
         <v>55</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1">
@@ -1853,7 +1847,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="P23" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="17">
         <v>15</v>
@@ -1882,7 +1876,7 @@
         <v>55</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K24" s="1">
         <v>1</v>
@@ -1920,7 +1914,7 @@
         <v>55</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
@@ -1929,7 +1923,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="P25" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="17">
         <v>1</v>
@@ -1958,7 +1952,7 @@
         <v>55</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -1996,7 +1990,7 @@
         <v>55</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2035,7 +2029,7 @@
         <v>55</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -2072,6 +2066,7 @@
       <c r="G29">
         <v>55</v>
       </c>
+      <c r="K29" s="1"/>
       <c r="P29" s="10" t="s">
         <v>62</v>
       </c>
@@ -2164,19 +2159,19 @@
         <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G33">
         <v>90</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
@@ -2190,19 +2185,19 @@
         <v>16</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G34">
         <v>90</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
@@ -2222,40 +2217,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB46209C-E3B2-425F-8F00-6325E409A73B}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I1" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="I1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G2">
         <f>SUM(G4:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="19" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>92</v>
+      <c r="K2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -2299,20 +2297,20 @@
         <v>1000</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2321,12 +2319,21 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2335,12 +2342,21 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2349,12 +2365,21 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2363,12 +2388,21 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2377,12 +2411,21 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2391,12 +2434,21 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2405,12 +2457,21 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2419,12 +2480,21 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2433,12 +2503,21 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2447,12 +2526,21 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2461,12 +2549,21 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2475,12 +2572,21 @@
       <c r="D15" t="s">
         <v>18</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2489,12 +2595,21 @@
       <c r="D16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2503,12 +2618,21 @@
       <c r="D17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2517,12 +2641,21 @@
       <c r="D18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="E18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2531,12 +2664,21 @@
       <c r="D19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2545,12 +2687,21 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="E20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2559,12 +2710,21 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="E21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2573,12 +2733,21 @@
       <c r="D22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="E22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2587,12 +2756,21 @@
       <c r="D23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2601,12 +2779,21 @@
       <c r="D24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="E24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2615,12 +2802,21 @@
       <c r="D25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="E25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2629,12 +2825,21 @@
       <c r="D26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2644,11 +2849,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2658,11 +2863,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2672,11 +2877,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2686,11 +2891,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2700,11 +2905,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2715,84 +2920,84 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -2947,7 +3152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F894429-5A64-4235-A3D8-131B4F8FFBFA}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H5"/>
     </sheetView>
   </sheetViews>
@@ -2974,13 +3179,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -2989,30 +3194,30 @@
         <v>57</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1">
         <v>8</v>
@@ -3025,19 +3230,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
@@ -3050,19 +3255,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3114,34 +3319,34 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3155,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
@@ -3166,7 +3371,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f>"CD:" &amp; A3 &amp; "-" &amp;B3 &amp; " " &amp;D3&amp;C3</f>
+        <f t="shared" ref="J3:J8" si="0">"CD:" &amp; A3 &amp; "-" &amp;B3 &amp; " " &amp;D3&amp;C3</f>
         <v>CD:1-2 MMF1</v>
       </c>
     </row>
@@ -3181,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
@@ -3194,7 +3399,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="str">
-        <f>"CD:" &amp; A4 &amp; "-" &amp;B4 &amp; " " &amp;D4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>CD:1-2 SMF1</v>
       </c>
     </row>
@@ -3209,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3218,7 +3423,7 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f>"CD:" &amp; A5 &amp; "-" &amp;B5 &amp; " " &amp;D5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>CD:1-2 Multicore1</v>
       </c>
     </row>
@@ -3233,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -3244,7 +3449,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f>"CD:" &amp; A6 &amp; "-" &amp;B6 &amp; " " &amp;D6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>CD:2-3 MMF1</v>
       </c>
     </row>
@@ -3259,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
@@ -3272,7 +3477,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f>"CD:" &amp; A7 &amp; "-" &amp;B7 &amp; " " &amp;D7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>CD:2-3 SMF1</v>
       </c>
     </row>
@@ -3287,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3296,7 +3501,7 @@
         <v>25</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f>"CD:" &amp; A8 &amp; "-" &amp;B8 &amp; " " &amp;D8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>CD:2-3 Multicore1</v>
       </c>
     </row>
